--- a/坐标/多线程.xlsx
+++ b/坐标/多线程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="样例1" sheetId="7" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="样例4" sheetId="10" r:id="rId4"/>
     <sheet name="样例5" sheetId="12" r:id="rId5"/>
     <sheet name="样例6" sheetId="11" r:id="rId6"/>
-    <sheet name="天津" sheetId="3" r:id="rId7"/>
-    <sheet name="北京" sheetId="2" r:id="rId8"/>
-    <sheet name="山东" sheetId="5" r:id="rId9"/>
-    <sheet name="河北" sheetId="4" r:id="rId10"/>
+    <sheet name="河北" sheetId="4" r:id="rId7"/>
+    <sheet name="天津" sheetId="3" r:id="rId8"/>
+    <sheet name="北京" sheetId="2" r:id="rId9"/>
+    <sheet name="山东" sheetId="5" r:id="rId10"/>
     <sheet name="汇总" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="326">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1332,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1364,257 +1364,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D2">
-        <v>119.12</v>
+        <v>116.8584</v>
       </c>
       <c r="E2">
-        <v>36.701900000000002</v>
+        <v>38.325400000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>119.0919</v>
+        <v>116.87090000000001</v>
       </c>
       <c r="E3">
-        <v>36.730600000000003</v>
+        <v>38.322800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="D4">
-        <v>119.1425</v>
+        <v>115.6951</v>
       </c>
       <c r="E4">
-        <v>36.700800000000001</v>
+        <v>37.7575</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="D5">
-        <v>119.1614</v>
+        <v>115.6426</v>
       </c>
       <c r="E5">
-        <v>36.657200000000003</v>
+        <v>37.737900000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="D6">
-        <v>119.1939</v>
+        <v>115.6906</v>
       </c>
       <c r="E6">
-        <v>36.773099999999999</v>
+        <v>37.738999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="D7">
-        <v>116.6305</v>
+        <v>114.4821</v>
       </c>
       <c r="E7">
-        <v>35.427999999999997</v>
+        <v>37.096699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="D8">
-        <v>116.5856</v>
+        <v>114.5261</v>
       </c>
       <c r="E8">
-        <v>35.414400000000001</v>
+        <v>37.0533</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="D9">
-        <v>116.55459999999999</v>
+        <v>114.5331</v>
       </c>
       <c r="E9">
-        <v>35.4039</v>
+        <v>37.096400000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="D10">
-        <v>118.50190000000001</v>
+        <v>114.4854</v>
       </c>
       <c r="E10">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E11">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12">
-        <v>118.5857</v>
-      </c>
-      <c r="E12">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13">
-        <v>118.8192</v>
-      </c>
-      <c r="E13">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14">
-        <v>115.42277</v>
-      </c>
-      <c r="E14">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15">
-        <v>115.474722</v>
-      </c>
-      <c r="E15">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16">
-        <v>115.455</v>
-      </c>
-      <c r="E16">
-        <v>35.270000000000003</v>
+        <v>37.061999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1626,15 +1524,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C40" sqref="C36:C40"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,897 +1554,1260 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>116.988</v>
+      </c>
+      <c r="E2">
+        <v>36.611400000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>114.45480000000001</v>
+        <v>116.93</v>
       </c>
       <c r="E3">
-        <v>38.051299999999998</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>114.6046</v>
+        <v>117.114</v>
       </c>
       <c r="E4">
-        <v>38.0398</v>
+        <v>36.673900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>114.50190000000001</v>
+        <v>116.989</v>
       </c>
       <c r="E5">
-        <v>38.139800000000001</v>
+        <v>36.687199999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>114.4586111</v>
+        <v>117.0684</v>
       </c>
       <c r="E6">
-        <v>38.005833330000002</v>
+        <v>36.686799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>114.5330556</v>
+        <v>116.943</v>
       </c>
       <c r="E7">
-        <v>38.017777780000003</v>
+        <v>36.648899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>114.5214</v>
+        <v>117.04900000000001</v>
       </c>
       <c r="E8">
-        <v>38.052399999999999</v>
+        <v>36.662199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>114.3541</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="E9">
-        <v>37.909700000000001</v>
+        <v>36.5336</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>118.1662</v>
+        <v>120.66589999999999</v>
       </c>
       <c r="E10">
-        <v>39.630800000000001</v>
+        <v>36.240299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>118.14400000000001</v>
+        <v>120.3905</v>
       </c>
       <c r="E11">
-        <v>39.643000000000001</v>
+        <v>36.185099999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>118.1853</v>
+        <v>120.3471</v>
       </c>
       <c r="E12">
-        <v>39.640700000000002</v>
+        <v>36.069899999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>118.21850000000001</v>
+        <v>120.4134</v>
       </c>
       <c r="E13">
-        <v>39.667900000000003</v>
+        <v>36.065399999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>118.18380000000001</v>
+        <v>120.3664</v>
       </c>
       <c r="E14">
-        <v>39.657820000000001</v>
+        <v>36.103200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>118.19970000000001</v>
+        <v>120.2992</v>
       </c>
       <c r="E15">
-        <v>39.6295</v>
+        <v>36.054299999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>119.52589999999999</v>
+        <v>120.45869999999999</v>
       </c>
       <c r="E16">
-        <v>39.828299999999999</v>
+        <v>36.085099999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>119.7624</v>
+        <v>120.1964</v>
       </c>
       <c r="E17">
-        <v>40.018099999999997</v>
+        <v>36.308300000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>119.6023</v>
+        <v>120.40009999999999</v>
       </c>
       <c r="E18">
-        <v>39.956699999999998</v>
+        <v>36.240299999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>119.607</v>
+        <v>117.685</v>
       </c>
       <c r="E19">
-        <v>39.9358</v>
+        <v>36.204999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>119.5369</v>
+        <v>117.6789</v>
       </c>
       <c r="E20">
-        <v>39.941899999999997</v>
+        <v>36.228900000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>114.5129</v>
+        <v>117.715</v>
       </c>
       <c r="E21">
-        <v>36.617629999999998</v>
+        <v>36.208100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>114.54259999999999</v>
+        <v>118.34180000000001</v>
       </c>
       <c r="E22">
-        <v>36.616399999999999</v>
+        <v>35.057299999999998</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>114.5035</v>
+        <v>118.29389999999999</v>
       </c>
       <c r="E23">
-        <v>36.577599999999997</v>
+        <v>35.062199999999997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>114.4965</v>
+        <v>118.2764</v>
       </c>
       <c r="E24">
-        <v>36.619810000000001</v>
+        <v>34.981699999999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>115.49299999999999</v>
+        <v>118.4023</v>
       </c>
       <c r="E25">
-        <v>38.863199999999999</v>
+        <v>35.089599999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>115.5223</v>
+        <v>116.3061</v>
       </c>
       <c r="E26">
-        <v>38.895699999999998</v>
+        <v>37.4664</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>115.4713</v>
+        <v>116.27290000000001</v>
       </c>
       <c r="E27">
-        <v>38.910800000000002</v>
+        <v>37.450400000000002</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>115.46120000000001</v>
+        <v>116.3189</v>
       </c>
       <c r="E28">
-        <v>38.8416</v>
+        <v>37.448900000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>115.44199999999999</v>
+        <v>115.98480000000001</v>
       </c>
       <c r="E29">
-        <v>38.875599999999999</v>
+        <v>36.437199999999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>115.5214</v>
+        <v>115.99679999999999</v>
       </c>
       <c r="E30">
-        <v>38.870699999999999</v>
+        <v>36.456800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="D31">
-        <v>114.8985</v>
+        <v>115.98350000000001</v>
       </c>
       <c r="E31">
-        <v>40.8367</v>
+        <v>36.479599999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>114.892</v>
+        <v>118.00620000000001</v>
       </c>
       <c r="E32">
-        <v>40.794809999999998</v>
+        <v>37.380299999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>114.8814</v>
+        <v>118.0018</v>
       </c>
       <c r="E33">
-        <v>40.811500000000002</v>
+        <v>37.361699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>114.9032</v>
+        <v>117.9776</v>
       </c>
       <c r="E34">
-        <v>40.768799999999999</v>
+        <v>37.393000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>114.904</v>
+        <v>118.04819999999999</v>
       </c>
       <c r="E35">
-        <v>40.872500000000002</v>
+        <v>36.808799999999998</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>117.96639999999999</v>
+        <v>118.0448</v>
       </c>
       <c r="E36">
-        <v>40.9161</v>
+        <v>36.838000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>117.9525</v>
+        <v>117.8477</v>
       </c>
       <c r="E37">
-        <v>40.984299999999998</v>
+        <v>36.497</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>117.96299999999999</v>
+        <v>117.95440000000001</v>
       </c>
       <c r="E38">
-        <v>40.935899999999997</v>
+        <v>36.637700000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>117.8184</v>
+        <v>118.3092</v>
       </c>
       <c r="E39">
-        <v>40.973300000000002</v>
+        <v>36.819800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>117.9384</v>
+        <v>117.85120000000001</v>
       </c>
       <c r="E40">
-        <v>41.011200000000002</v>
+        <v>36.804099999999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>116.68380000000001</v>
+        <v>117.5564</v>
       </c>
       <c r="E41">
-        <v>39.517800000000001</v>
+        <v>34.863999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>116.77290000000001</v>
+        <v>117.2852</v>
       </c>
       <c r="E42">
-        <v>39.5747</v>
+        <v>34.783700000000003</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>116.715</v>
+        <v>117.5852</v>
       </c>
       <c r="E43">
-        <v>39.557099999999998</v>
+        <v>34.774500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="D44">
-        <v>116.74639999999999</v>
+        <v>117.732</v>
       </c>
       <c r="E44">
-        <v>39.534300000000002</v>
+        <v>34.566699999999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="D45">
-        <v>116.8854</v>
+        <v>117.45180000000001</v>
       </c>
       <c r="E45">
-        <v>38.299100000000003</v>
+        <v>35.099200000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="D46">
-        <v>116.8584</v>
+        <v>121.2514</v>
       </c>
       <c r="E46">
-        <v>38.325400000000002</v>
+        <v>37.563899999999997</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="D47">
-        <v>116.87090000000001</v>
+        <v>121.3719</v>
       </c>
       <c r="E47">
-        <v>38.322800000000001</v>
+        <v>37.543300000000002</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D48">
-        <v>115.6951</v>
+        <v>121.3181</v>
       </c>
       <c r="E48">
-        <v>37.7575</v>
+        <v>37.543599999999998</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D49">
-        <v>115.6426</v>
+        <v>121.4478</v>
       </c>
       <c r="E49">
-        <v>37.737900000000003</v>
+        <v>37.482199999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D50">
-        <v>115.6906</v>
+        <v>121.2611</v>
       </c>
       <c r="E50">
-        <v>37.738999999999997</v>
+        <v>37.496699999999997</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="D51">
-        <v>114.4821</v>
+        <v>121.59529999999999</v>
       </c>
       <c r="E51">
-        <v>37.096699999999998</v>
+        <v>37.3872</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>114.5261</v>
+        <v>119.12</v>
       </c>
       <c r="E52">
-        <v>37.0533</v>
+        <v>36.701900000000002</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>114.5331</v>
+        <v>119.0919</v>
       </c>
       <c r="E53">
-        <v>37.096400000000003</v>
+        <v>36.730600000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>119.1425</v>
+      </c>
+      <c r="E54">
+        <v>36.700800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>119.1614</v>
+      </c>
+      <c r="E55">
+        <v>36.657200000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>119.1939</v>
+      </c>
+      <c r="E56">
+        <v>36.773099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>116.6305</v>
+      </c>
+      <c r="E57">
+        <v>35.427999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>116.5856</v>
+      </c>
+      <c r="E58">
+        <v>35.414400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>116.55459999999999</v>
+      </c>
+      <c r="E59">
+        <v>35.4039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60">
+        <v>117.14360000000001</v>
+      </c>
+      <c r="E60">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61">
+        <v>117.0881</v>
+      </c>
+      <c r="E61">
+        <v>36.194200000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62">
+        <v>117.10809999999999</v>
+      </c>
+      <c r="E62">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>119.4641</v>
+      </c>
+      <c r="E63">
+        <v>35.4178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>119.5198</v>
+      </c>
+      <c r="E64">
+        <v>35.423400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65">
+        <v>119.54</v>
+      </c>
+      <c r="E65">
+        <v>35.3962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66">
+        <v>122.1206</v>
+      </c>
+      <c r="E66">
+        <v>37.429400000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67">
+        <v>122.0508</v>
+      </c>
+      <c r="E67">
+        <v>37.532499999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68">
+        <v>122.1067</v>
+      </c>
+      <c r="E68">
+        <v>37.507199999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69">
+        <v>118.50190000000001</v>
+      </c>
+      <c r="E69">
+        <v>37.465800000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
         <v>80</v>
       </c>
-      <c r="C54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D54">
-        <v>114.4854</v>
-      </c>
-      <c r="E54">
-        <v>37.061999999999998</v>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70">
+        <v>118.66719999999999</v>
+      </c>
+      <c r="E70">
+        <v>37.431399999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71">
+        <v>118.5857</v>
+      </c>
+      <c r="E71">
+        <v>37.444200000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72">
+        <v>118.8192</v>
+      </c>
+      <c r="E72">
+        <v>37.378100000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73">
+        <v>115.42277</v>
+      </c>
+      <c r="E73">
+        <v>35.248888999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74">
+        <v>115.474722</v>
+      </c>
+      <c r="E74">
+        <v>35.237499999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75">
+        <v>115.455</v>
+      </c>
+      <c r="E75">
+        <v>35.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5178,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5205,155 +5466,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>117.14360000000001</v>
+        <v>117.96639999999999</v>
       </c>
       <c r="E2">
-        <v>36.194200000000002</v>
+        <v>40.9161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>117.0881</v>
+        <v>117.9525</v>
       </c>
       <c r="E3">
-        <v>36.194200000000002</v>
+        <v>40.984299999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>117.10809999999999</v>
+        <v>117.96299999999999</v>
       </c>
       <c r="E4">
-        <v>36.175800000000002</v>
+        <v>40.935899999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>119.4641</v>
+        <v>117.8184</v>
       </c>
       <c r="E5">
-        <v>35.4178</v>
+        <v>40.973300000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>119.5198</v>
+        <v>117.9384</v>
       </c>
       <c r="E6">
-        <v>35.423400000000001</v>
+        <v>41.011200000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="D7">
-        <v>119.54</v>
+        <v>116.68380000000001</v>
       </c>
       <c r="E7">
-        <v>35.3962</v>
+        <v>39.517800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="D8">
-        <v>122.1206</v>
+        <v>116.77290000000001</v>
       </c>
       <c r="E8">
-        <v>37.429400000000001</v>
+        <v>39.5747</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="D9">
-        <v>122.0508</v>
+        <v>116.715</v>
       </c>
       <c r="E9">
-        <v>37.532499999999999</v>
+        <v>39.557099999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="D10">
-        <v>122.1067</v>
+        <v>116.74639999999999</v>
       </c>
       <c r="E10">
-        <v>37.507199999999997</v>
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>116.8854</v>
+      </c>
+      <c r="E11">
+        <v>38.299100000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5364,10 +5642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E18"/>
+      <selection activeCell="A11" sqref="A11:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5391,291 +5669,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D2">
-        <v>116.988</v>
+        <v>115.4713</v>
       </c>
       <c r="E2">
-        <v>36.611400000000003</v>
+        <v>38.910800000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3">
-        <v>116.93</v>
+        <v>115.46120000000001</v>
       </c>
       <c r="E3">
-        <v>36.67</v>
+        <v>38.8416</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D4">
-        <v>117.114</v>
+        <v>115.44199999999999</v>
       </c>
       <c r="E4">
-        <v>36.673900000000003</v>
+        <v>38.875599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>116.989</v>
+        <v>115.5214</v>
       </c>
       <c r="E5">
-        <v>36.687199999999997</v>
+        <v>38.870699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D6">
-        <v>117.0684</v>
+        <v>114.8985</v>
       </c>
       <c r="E6">
-        <v>36.686799999999998</v>
+        <v>40.8367</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D7">
-        <v>116.943</v>
+        <v>114.892</v>
       </c>
       <c r="E7">
-        <v>36.648899999999998</v>
+        <v>40.794809999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D8">
-        <v>117.04900000000001</v>
+        <v>114.8814</v>
       </c>
       <c r="E8">
-        <v>36.662199999999999</v>
+        <v>40.811500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="D9">
-        <v>116.73399999999999</v>
+        <v>114.9032</v>
       </c>
       <c r="E9">
-        <v>36.5336</v>
+        <v>40.768799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D10">
-        <v>120.66589999999999</v>
+        <v>114.904</v>
       </c>
       <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>120.3905</v>
-      </c>
-      <c r="E11">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>120.3471</v>
-      </c>
-      <c r="E12">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>120.4134</v>
-      </c>
-      <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>120.3664</v>
-      </c>
-      <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>120.2992</v>
-      </c>
-      <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
+        <v>40.872500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5686,10 +5828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5713,172 +5855,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>117.685</v>
+        <v>119.6023</v>
       </c>
       <c r="E2">
-        <v>36.204999999999998</v>
+        <v>39.956699999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="D3">
-        <v>117.6789</v>
+        <v>119.607</v>
       </c>
       <c r="E3">
-        <v>36.228900000000003</v>
+        <v>39.9358</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="D4">
-        <v>117.715</v>
+        <v>119.5369</v>
       </c>
       <c r="E4">
-        <v>36.208100000000002</v>
+        <v>39.941899999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>118.34180000000001</v>
+        <v>114.5129</v>
       </c>
       <c r="E5">
-        <v>35.057299999999998</v>
+        <v>36.617629999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="D6">
-        <v>118.29389999999999</v>
+        <v>114.54259999999999</v>
       </c>
       <c r="E6">
-        <v>35.062199999999997</v>
+        <v>36.616399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="D7">
-        <v>118.2764</v>
+        <v>114.5035</v>
       </c>
       <c r="E7">
-        <v>34.981699999999996</v>
+        <v>36.577599999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="D8">
-        <v>118.4023</v>
+        <v>114.4965</v>
       </c>
       <c r="E8">
-        <v>35.089599999999997</v>
+        <v>36.619810000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="D9">
-        <v>116.3061</v>
+        <v>115.49299999999999</v>
       </c>
       <c r="E9">
-        <v>37.4664</v>
+        <v>38.863199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="D10">
-        <v>116.27290000000001</v>
+        <v>115.5223</v>
       </c>
       <c r="E10">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>116.3189</v>
-      </c>
-      <c r="E11">
-        <v>37.448900000000002</v>
+        <v>38.895699999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5889,10 +6014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5916,206 +6041,138 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D2">
-        <v>115.98480000000001</v>
+        <v>118.1662</v>
       </c>
       <c r="E2">
-        <v>36.437199999999997</v>
+        <v>39.630800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>115.99679999999999</v>
+        <v>118.14400000000001</v>
       </c>
       <c r="E3">
-        <v>36.456800000000001</v>
+        <v>39.643000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>115.98350000000001</v>
+        <v>118.1853</v>
       </c>
       <c r="E4">
-        <v>36.479599999999998</v>
+        <v>39.640700000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>118.00620000000001</v>
+        <v>118.21850000000001</v>
       </c>
       <c r="E5">
-        <v>37.380299999999998</v>
+        <v>39.667900000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>118.0018</v>
+        <v>118.18380000000001</v>
       </c>
       <c r="E6">
-        <v>37.361699999999999</v>
+        <v>39.657820000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>117.9776</v>
+        <v>118.19970000000001</v>
       </c>
       <c r="E7">
-        <v>37.393000000000001</v>
+        <v>39.6295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="D8">
-        <v>118.04819999999999</v>
+        <v>119.52589999999999</v>
       </c>
       <c r="E8">
-        <v>36.808799999999998</v>
+        <v>39.828299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>118.0448</v>
+        <v>119.7624</v>
       </c>
       <c r="E9">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10">
-        <v>117.8477</v>
-      </c>
-      <c r="E10">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E11">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
-        <v>118.3092</v>
-      </c>
-      <c r="E12">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E13">
-        <v>36.804099999999998</v>
+        <v>40.018099999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6126,10 +6183,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6153,189 +6210,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>117.5564</v>
+        <v>114.45480000000001</v>
       </c>
       <c r="E2">
-        <v>34.863999999999997</v>
+        <v>38.051299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>117.2852</v>
+        <v>114.6046</v>
       </c>
       <c r="E3">
-        <v>34.783700000000003</v>
+        <v>38.0398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>117.5852</v>
+        <v>114.50190000000001</v>
       </c>
       <c r="E4">
-        <v>34.774500000000003</v>
+        <v>38.139800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D5">
-        <v>117.732</v>
+        <v>114.4586111</v>
       </c>
       <c r="E5">
-        <v>34.566699999999997</v>
+        <v>38.005833330000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>117.45180000000001</v>
+        <v>114.5330556</v>
       </c>
       <c r="E6">
-        <v>35.099200000000003</v>
+        <v>38.017777780000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D7">
-        <v>121.2514</v>
+        <v>114.5214</v>
       </c>
       <c r="E7">
-        <v>37.563899999999997</v>
+        <v>38.052399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D8">
-        <v>121.3719</v>
+        <v>114.3541</v>
       </c>
       <c r="E8">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9">
-        <v>121.3181</v>
-      </c>
-      <c r="E9">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10">
-        <v>121.4478</v>
-      </c>
-      <c r="E10">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11">
-        <v>121.2611</v>
-      </c>
-      <c r="E11">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E12">
-        <v>37.3872</v>
+        <v>37.909700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6345,6 +6334,937 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>114.45480000000001</v>
+      </c>
+      <c r="E3">
+        <v>38.051299999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <v>114.6046</v>
+      </c>
+      <c r="E4">
+        <v>38.0398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>114.50190000000001</v>
+      </c>
+      <c r="E5">
+        <v>38.139800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>114.4586111</v>
+      </c>
+      <c r="E6">
+        <v>38.005833330000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114.5330556</v>
+      </c>
+      <c r="E7">
+        <v>38.017777780000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8">
+        <v>114.5214</v>
+      </c>
+      <c r="E8">
+        <v>38.052399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9">
+        <v>114.3541</v>
+      </c>
+      <c r="E9">
+        <v>37.909700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10">
+        <v>118.1662</v>
+      </c>
+      <c r="E10">
+        <v>39.630800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="E11">
+        <v>39.643000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12">
+        <v>118.1853</v>
+      </c>
+      <c r="E12">
+        <v>39.640700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13">
+        <v>118.21850000000001</v>
+      </c>
+      <c r="E13">
+        <v>39.667900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>118.18380000000001</v>
+      </c>
+      <c r="E14">
+        <v>39.657820000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15">
+        <v>118.19970000000001</v>
+      </c>
+      <c r="E15">
+        <v>39.6295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16">
+        <v>119.52589999999999</v>
+      </c>
+      <c r="E16">
+        <v>39.828299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>119.7624</v>
+      </c>
+      <c r="E17">
+        <v>40.018099999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18">
+        <v>119.6023</v>
+      </c>
+      <c r="E18">
+        <v>39.956699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>119.607</v>
+      </c>
+      <c r="E19">
+        <v>39.9358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>119.5369</v>
+      </c>
+      <c r="E20">
+        <v>39.941899999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>114.5129</v>
+      </c>
+      <c r="E21">
+        <v>36.617629999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22">
+        <v>114.54259999999999</v>
+      </c>
+      <c r="E22">
+        <v>36.616399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23">
+        <v>114.5035</v>
+      </c>
+      <c r="E23">
+        <v>36.577599999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24">
+        <v>114.4965</v>
+      </c>
+      <c r="E24">
+        <v>36.619810000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25">
+        <v>115.49299999999999</v>
+      </c>
+      <c r="E25">
+        <v>38.863199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26">
+        <v>115.5223</v>
+      </c>
+      <c r="E26">
+        <v>38.895699999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27">
+        <v>115.4713</v>
+      </c>
+      <c r="E27">
+        <v>38.910800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28">
+        <v>115.46120000000001</v>
+      </c>
+      <c r="E28">
+        <v>38.8416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29">
+        <v>115.44199999999999</v>
+      </c>
+      <c r="E29">
+        <v>38.875599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30">
+        <v>115.5214</v>
+      </c>
+      <c r="E30">
+        <v>38.870699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31">
+        <v>114.8985</v>
+      </c>
+      <c r="E31">
+        <v>40.8367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32">
+        <v>114.892</v>
+      </c>
+      <c r="E32">
+        <v>40.794809999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33">
+        <v>114.8814</v>
+      </c>
+      <c r="E33">
+        <v>40.811500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34">
+        <v>114.9032</v>
+      </c>
+      <c r="E34">
+        <v>40.768799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35">
+        <v>114.904</v>
+      </c>
+      <c r="E35">
+        <v>40.872500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36">
+        <v>117.96639999999999</v>
+      </c>
+      <c r="E36">
+        <v>40.9161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37">
+        <v>117.9525</v>
+      </c>
+      <c r="E37">
+        <v>40.984299999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38">
+        <v>117.96299999999999</v>
+      </c>
+      <c r="E38">
+        <v>40.935899999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39">
+        <v>117.8184</v>
+      </c>
+      <c r="E39">
+        <v>40.973300000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40">
+        <v>117.9384</v>
+      </c>
+      <c r="E40">
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41">
+        <v>116.68380000000001</v>
+      </c>
+      <c r="E41">
+        <v>39.517800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42">
+        <v>116.77290000000001</v>
+      </c>
+      <c r="E42">
+        <v>39.5747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43">
+        <v>116.715</v>
+      </c>
+      <c r="E43">
+        <v>39.557099999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44">
+        <v>116.74639999999999</v>
+      </c>
+      <c r="E44">
+        <v>39.534300000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45">
+        <v>116.8854</v>
+      </c>
+      <c r="E45">
+        <v>38.299100000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46">
+        <v>116.8584</v>
+      </c>
+      <c r="E46">
+        <v>38.325400000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47">
+        <v>116.87090000000001</v>
+      </c>
+      <c r="E47">
+        <v>38.322800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48">
+        <v>115.6951</v>
+      </c>
+      <c r="E48">
+        <v>37.7575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49">
+        <v>115.6426</v>
+      </c>
+      <c r="E49">
+        <v>37.737900000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50">
+        <v>115.6906</v>
+      </c>
+      <c r="E50">
+        <v>37.738999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51">
+        <v>114.4821</v>
+      </c>
+      <c r="E51">
+        <v>37.096699999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52">
+        <v>114.5261</v>
+      </c>
+      <c r="E52">
+        <v>37.0533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53">
+        <v>114.5331</v>
+      </c>
+      <c r="E53">
+        <v>37.096400000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54">
+        <v>114.4854</v>
+      </c>
+      <c r="E54">
+        <v>37.061999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -6618,7 +7538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6858,1298 +7778,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="A69:E75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>116.988</v>
-      </c>
-      <c r="E2">
-        <v>36.611400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>116.93</v>
-      </c>
-      <c r="E3">
-        <v>36.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>117.114</v>
-      </c>
-      <c r="E4">
-        <v>36.673900000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>116.989</v>
-      </c>
-      <c r="E5">
-        <v>36.687199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>117.0684</v>
-      </c>
-      <c r="E6">
-        <v>36.686799999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>116.943</v>
-      </c>
-      <c r="E7">
-        <v>36.648899999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>117.04900000000001</v>
-      </c>
-      <c r="E8">
-        <v>36.662199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>116.73399999999999</v>
-      </c>
-      <c r="E9">
-        <v>36.5336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>120.66589999999999</v>
-      </c>
-      <c r="E10">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>120.3905</v>
-      </c>
-      <c r="E11">
-        <v>36.185099999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>120.3471</v>
-      </c>
-      <c r="E12">
-        <v>36.069899999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>120.4134</v>
-      </c>
-      <c r="E13">
-        <v>36.065399999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>120.3664</v>
-      </c>
-      <c r="E14">
-        <v>36.103200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>120.2992</v>
-      </c>
-      <c r="E15">
-        <v>36.054299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>120.45869999999999</v>
-      </c>
-      <c r="E16">
-        <v>36.085099999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>120.1964</v>
-      </c>
-      <c r="E17">
-        <v>36.308300000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="E18">
-        <v>36.240299999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>117.685</v>
-      </c>
-      <c r="E19">
-        <v>36.204999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>117.6789</v>
-      </c>
-      <c r="E20">
-        <v>36.228900000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>117.715</v>
-      </c>
-      <c r="E21">
-        <v>36.208100000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>118.34180000000001</v>
-      </c>
-      <c r="E22">
-        <v>35.057299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23">
-        <v>118.29389999999999</v>
-      </c>
-      <c r="E23">
-        <v>35.062199999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>118.2764</v>
-      </c>
-      <c r="E24">
-        <v>34.981699999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>118.4023</v>
-      </c>
-      <c r="E25">
-        <v>35.089599999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26">
-        <v>116.3061</v>
-      </c>
-      <c r="E26">
-        <v>37.4664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27">
-        <v>116.27290000000001</v>
-      </c>
-      <c r="E27">
-        <v>37.450400000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <v>116.3189</v>
-      </c>
-      <c r="E28">
-        <v>37.448900000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>115.98480000000001</v>
-      </c>
-      <c r="E29">
-        <v>36.437199999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>115.99679999999999</v>
-      </c>
-      <c r="E30">
-        <v>36.456800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31">
-        <v>115.98350000000001</v>
-      </c>
-      <c r="E31">
-        <v>36.479599999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32">
-        <v>118.00620000000001</v>
-      </c>
-      <c r="E32">
-        <v>37.380299999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33">
-        <v>118.0018</v>
-      </c>
-      <c r="E33">
-        <v>37.361699999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34">
-        <v>117.9776</v>
-      </c>
-      <c r="E34">
-        <v>37.393000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35">
-        <v>118.04819999999999</v>
-      </c>
-      <c r="E35">
-        <v>36.808799999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36">
-        <v>118.0448</v>
-      </c>
-      <c r="E36">
-        <v>36.838000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37">
-        <v>117.8477</v>
-      </c>
-      <c r="E37">
-        <v>36.497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38">
-        <v>117.95440000000001</v>
-      </c>
-      <c r="E38">
-        <v>36.637700000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39">
-        <v>118.3092</v>
-      </c>
-      <c r="E39">
-        <v>36.819800000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40">
-        <v>117.85120000000001</v>
-      </c>
-      <c r="E40">
-        <v>36.804099999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41">
-        <v>117.5564</v>
-      </c>
-      <c r="E41">
-        <v>34.863999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42">
-        <v>117.2852</v>
-      </c>
-      <c r="E42">
-        <v>34.783700000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43">
-        <v>117.5852</v>
-      </c>
-      <c r="E43">
-        <v>34.774500000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44">
-        <v>117.732</v>
-      </c>
-      <c r="E44">
-        <v>34.566699999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45">
-        <v>117.45180000000001</v>
-      </c>
-      <c r="E45">
-        <v>35.099200000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46">
-        <v>121.2514</v>
-      </c>
-      <c r="E46">
-        <v>37.563899999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47">
-        <v>121.3719</v>
-      </c>
-      <c r="E47">
-        <v>37.543300000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48">
-        <v>121.3181</v>
-      </c>
-      <c r="E48">
-        <v>37.543599999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49">
-        <v>121.4478</v>
-      </c>
-      <c r="E49">
-        <v>37.482199999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50">
-        <v>121.2611</v>
-      </c>
-      <c r="E50">
-        <v>37.496699999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51">
-        <v>121.59529999999999</v>
-      </c>
-      <c r="E51">
-        <v>37.3872</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>119.12</v>
-      </c>
-      <c r="E52">
-        <v>36.701900000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>119.0919</v>
-      </c>
-      <c r="E53">
-        <v>36.730600000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>119.1425</v>
-      </c>
-      <c r="E54">
-        <v>36.700800000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55">
-        <v>119.1614</v>
-      </c>
-      <c r="E55">
-        <v>36.657200000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>119.1939</v>
-      </c>
-      <c r="E56">
-        <v>36.773099999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>116.6305</v>
-      </c>
-      <c r="E57">
-        <v>35.427999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>116.5856</v>
-      </c>
-      <c r="E58">
-        <v>35.414400000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>116.55459999999999</v>
-      </c>
-      <c r="E59">
-        <v>35.4039</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60">
-        <v>117.14360000000001</v>
-      </c>
-      <c r="E60">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61">
-        <v>117.0881</v>
-      </c>
-      <c r="E61">
-        <v>36.194200000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62">
-        <v>117.10809999999999</v>
-      </c>
-      <c r="E62">
-        <v>36.175800000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63">
-        <v>119.4641</v>
-      </c>
-      <c r="E63">
-        <v>35.4178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64">
-        <v>119.5198</v>
-      </c>
-      <c r="E64">
-        <v>35.423400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65">
-        <v>119.54</v>
-      </c>
-      <c r="E65">
-        <v>35.3962</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66">
-        <v>122.1206</v>
-      </c>
-      <c r="E66">
-        <v>37.429400000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67">
-        <v>122.0508</v>
-      </c>
-      <c r="E67">
-        <v>37.532499999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68">
-        <v>122.1067</v>
-      </c>
-      <c r="E68">
-        <v>37.507199999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69">
-        <v>118.50190000000001</v>
-      </c>
-      <c r="E69">
-        <v>37.465800000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70">
-        <v>118.66719999999999</v>
-      </c>
-      <c r="E70">
-        <v>37.431399999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71">
-        <v>118.5857</v>
-      </c>
-      <c r="E71">
-        <v>37.444200000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72">
-        <v>118.8192</v>
-      </c>
-      <c r="E72">
-        <v>37.378100000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73">
-        <v>115.42277</v>
-      </c>
-      <c r="E73">
-        <v>35.248888999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74">
-        <v>115.474722</v>
-      </c>
-      <c r="E74">
-        <v>35.237499999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75">
-        <v>115.455</v>
-      </c>
-      <c r="E75">
-        <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>